--- a/Assets/StreamingAssets/6_Ming.xlsx
+++ b/Assets/StreamingAssets/6_Ming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44F62CD-8254-E248-B441-893ADAB495B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B15AE36-D719-B940-A1F2-392B6B796E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="55">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -306,7 +306,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -314,9 +314,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -653,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -763,6 +760,9 @@
       <c r="D3" t="s">
         <v>13</v>
       </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -780,6 +780,9 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -797,6 +800,9 @@
       <c r="D5" t="s">
         <v>13</v>
       </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -814,6 +820,9 @@
       <c r="D6" t="s">
         <v>13</v>
       </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -831,6 +840,9 @@
       <c r="D7" t="s">
         <v>13</v>
       </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -848,6 +860,9 @@
       <c r="D8" t="s">
         <v>13</v>
       </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -865,6 +880,9 @@
       <c r="D9" t="s">
         <v>13</v>
       </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -876,6 +894,9 @@
       <c r="D10" t="s">
         <v>13</v>
       </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -887,6 +908,9 @@
       <c r="D11" t="s">
         <v>13</v>
       </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -904,6 +928,9 @@
       <c r="D12" t="s">
         <v>13</v>
       </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2">
         <v>500</v>
@@ -925,6 +952,9 @@
       <c r="D13" t="s">
         <v>13</v>
       </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -942,6 +972,9 @@
       <c r="D14" t="s">
         <v>13</v>
       </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -959,6 +992,9 @@
       <c r="D15" t="s">
         <v>13</v>
       </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -970,6 +1006,9 @@
       <c r="D16" t="s">
         <v>13</v>
       </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -987,6 +1026,9 @@
       <c r="D17" t="s">
         <v>13</v>
       </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -1004,6 +1046,9 @@
       <c r="D18" t="s">
         <v>13</v>
       </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -1021,6 +1066,9 @@
       <c r="D19" t="s">
         <v>13</v>
       </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2">
         <v>500</v>
@@ -1042,6 +1090,9 @@
       <c r="D20" t="s">
         <v>13</v>
       </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -1059,6 +1110,9 @@
       <c r="D21" t="s">
         <v>13</v>
       </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -1076,6 +1130,9 @@
       <c r="D22" t="s">
         <v>13</v>
       </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -1093,6 +1150,9 @@
       <c r="D23" t="s">
         <v>13</v>
       </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -1107,21 +1167,14 @@
       <c r="C24" t="s">
         <v>30</v>
       </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
       <c r="J24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/StreamingAssets/6_Ming.xlsx
+++ b/Assets/StreamingAssets/6_Ming.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B15AE36-D719-B940-A1F2-392B6B796E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AB35F1-4ACE-0641-A811-4FE5BADE2C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="15860" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="57">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,14 +173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The last time I saw my father…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>It must have been just before the You hour. We had a huge argument, and I stormed out of the room.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Do you remember, sir? I ran into you at the pavilion back then.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -193,42 +185,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>To think the last time we met was in anger…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I wonder what Ming feels in his heart now. Is there regret?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>At You zheng yi ke, I saw signs of rain and headed toward the banquet hall.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>On the way, I ran into the newly arrived Master Kong, so we walked together.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I recall—it started raining just as you both arrived at the banquet hall?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Yes.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Such a subtle difference in timing.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>After the banquet started, I only left once—around Wu chu er ke, I went to the back courtyard to urge Father to join us, but couldn’t find him.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Can you tell me more about your trip to the back courtyard?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Alright. I searched the study and my parents’ bedroom, but didn’t see Father anywhere.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -237,14 +197,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Not until Wu zheng er ke, when we all went together to look for him.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>When you went to and from the back courtyard, did you pass through the front courtyard?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>No. I went back and forth via the corridor.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -254,6 +206,62 @@
   </si>
   <si>
     <t>Ming-Regular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(I wonder what Ming feels in his heart now. Is there regret?)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Such a subtle difference in timing.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You went to parents’ bedroom?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The last time I saw my father......</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(To think the last time we met was in anger......)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It must have been just before 6 PM. We had a huge argument, and I stormed out of the room.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>At 6.15 PM, I saw signs of rain and headed toward the banquet hall.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On the way, I ran into the newly arrived Kong, so we walked together.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I recall——it started raining just as you both arrived at the banquet hall?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>After the banquet started, I only left once——around 7.45 PM, I went to the backyard to urge Father to join us, but couldn’t find him.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes. At the time, Mother was probably bathing behind the screen——her damp clothes were hanging on the rack next to it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not until 8.30 PM, when we all went together to look for him.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When you went to and from the backyard, did you pass through the frontyard?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can you tell me more about your trip to the backyard?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -650,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E24"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -755,7 +763,7 @@
         <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -792,10 +800,10 @@
         <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -812,10 +820,10 @@
         <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -832,7 +840,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -852,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
@@ -872,10 +880,10 @@
         <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -887,9 +895,9 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:16" ht="17">
+    <row r="10" spans="1:16" ht="34">
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -903,7 +911,7 @@
     </row>
     <row r="11" spans="1:16" ht="34">
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -920,7 +928,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -931,7 +939,9 @@
       <c r="E12" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="K12" s="2">
         <v>500</v>
       </c>
@@ -944,7 +954,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -964,7 +974,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
@@ -984,10 +994,10 @@
         <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
@@ -999,9 +1009,9 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:16" ht="17">
+    <row r="16" spans="1:16" ht="34">
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
@@ -1018,7 +1028,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -1033,12 +1043,12 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" ht="34">
+    <row r="18" spans="1:12" ht="17">
       <c r="A18" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>
@@ -1058,7 +1068,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
@@ -1069,7 +1079,9 @@
       <c r="E19" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="K19" s="2">
         <v>500</v>
       </c>
@@ -1082,10 +1094,10 @@
         <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
@@ -1097,15 +1109,15 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" ht="34">
+    <row r="21" spans="1:12" ht="17">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
@@ -1117,15 +1129,15 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="34">
+    <row r="22" spans="1:12" ht="51">
       <c r="A22" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
@@ -1137,15 +1149,15 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="17">
+    <row r="23" spans="1:12" ht="34">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
@@ -1157,24 +1169,64 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" ht="17">
+    <row r="24" spans="1:12" ht="34">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
       </c>
       <c r="E24" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" ht="17">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" ht="17">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
